--- a/DatosRetoTres.xlsx
+++ b/DatosRetoTres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Molina\Desktop\New folder\selenium-webdriver-java-course-c1\FelipeMolinaScreenPlay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30865E24-FA82-476E-BA27-63B8712C9954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235916BE-E9E0-4E8C-A1AF-434440A5A67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{EA5C581D-F5B0-4EF9-A2A6-7C3F59EA6A49}"/>
   </bookViews>
@@ -138,9 +138,6 @@
     <t>3146292608</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>1996</t>
   </si>
   <si>
@@ -150,10 +147,13 @@
     <t>Carlos</t>
   </si>
   <si>
-    <t>felipenal114@hotmail.com</t>
-  </si>
-  <si>
-    <t>1039467813pipe-</t>
+    <t>carlosnal114@hotmail.com</t>
+  </si>
+  <si>
+    <t>Sqalomejor</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +589,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>22</v>
@@ -613,16 +613,16 @@
         <v>31</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>33</v>

--- a/DatosRetoTres.xlsx
+++ b/DatosRetoTres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Molina\Desktop\New folder\selenium-webdriver-java-course-c1\FelipeMolinaScreenPlay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235916BE-E9E0-4E8C-A1AF-434440A5A67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4844B510-AFA0-45B5-9CB5-8D951352F3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{EA5C581D-F5B0-4EF9-A2A6-7C3F59EA6A49}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>Molina</t>
   </si>
   <si>
-    <t>Rios</t>
-  </si>
-  <si>
     <t>Dia</t>
   </si>
   <si>
@@ -147,20 +144,23 @@
     <t>Carlos</t>
   </si>
   <si>
-    <t>carlosnal114@hotmail.com</t>
-  </si>
-  <si>
     <t>Sqalomejor</t>
   </si>
   <si>
     <t>23</t>
+  </si>
+  <si>
+    <t>carlosn114@hotmail.com</t>
+  </si>
+  <si>
+    <t>Perez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +182,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -200,17 +208,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -526,7 +536,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,46 +599,49 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{0FDFA9F2-28BE-488B-9F89-8DF9C387731A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -680,7 +693,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -691,16 +704,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2">
         <v>2000</v>
@@ -708,16 +721,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2">
         <v>1999</v>
@@ -725,13 +738,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>1998</v>
@@ -739,13 +752,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2">
         <v>1997</v>
@@ -753,13 +766,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2">
         <v>1996</v>
@@ -767,13 +780,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2">
         <v>1995</v>
@@ -781,13 +794,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2">
         <v>1994</v>
@@ -798,7 +811,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">

--- a/DatosRetoTres.xlsx
+++ b/DatosRetoTres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Molina\Desktop\New folder\selenium-webdriver-java-course-c1\FelipeMolinaScreenPlay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4844B510-AFA0-45B5-9CB5-8D951352F3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772AD219-CC37-4FF5-BE44-72FBED59D0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{EA5C581D-F5B0-4EF9-A2A6-7C3F59EA6A49}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>Celular</t>
   </si>
   <si>
-    <t>Molina</t>
-  </si>
-  <si>
     <t>Dia</t>
   </si>
   <si>
@@ -150,17 +147,20 @@
     <t>23</t>
   </si>
   <si>
-    <t>carlosn114@hotmail.com</t>
-  </si>
-  <si>
     <t>Perez</t>
+  </si>
+  <si>
+    <t>Rios</t>
+  </si>
+  <si>
+    <t>carlossn113@hotmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,14 +182,6 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -208,19 +200,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -536,7 +526,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,49 +589,46 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{0FDFA9F2-28BE-488B-9F89-8DF9C387731A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -693,7 +680,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -704,16 +691,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2">
         <v>2000</v>
@@ -721,16 +708,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2">
         <v>1999</v>
@@ -738,13 +725,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2">
         <v>1998</v>
@@ -752,13 +739,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2">
         <v>1997</v>
@@ -766,13 +753,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2">
         <v>1996</v>
@@ -780,13 +767,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2">
         <v>1995</v>
@@ -794,13 +781,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2">
         <v>1994</v>
@@ -811,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
